--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2494490.722233619</v>
+        <v>-2497246.064312668</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>42.20032002864624</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>289.6627134951848</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833737</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>113.8506660423293</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>176.3253868682112</v>
+        <v>257.7067458323334</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>22.68511269088629</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>210.795166890872</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>240.0586667805016</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>162.0669438722571</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.89378405495484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>117.808275867569</v>
+        <v>51.52627060320597</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>134.5865938496213</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>107.8257826645532</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>68.17501931583779</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>261.8890829640565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.5859514748438</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>247.6310136071102</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.8605623338606</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>170.7002125187789</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>195.138430831545</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096048</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317882</v>
@@ -2716,7 +2716,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545294</v>
@@ -2725,7 +2725,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002299</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541841</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2998,19 +2998,19 @@
         <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972055</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652576</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096048</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317882</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>420.7623722632314</v>
+        <v>501.3331008147481</v>
       </c>
       <c r="C2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="D2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="E2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="F2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073759</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>644.3837423617432</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>882.0065235799345</v>
+        <v>730.2783389764048</v>
       </c>
       <c r="M2" t="n">
-        <v>1178.077090137537</v>
+        <v>1371.301548596299</v>
       </c>
       <c r="N2" t="n">
-        <v>1483.552196373121</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689755</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068626</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4358,22 +4358,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016315</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2194.618789397901</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>1863.555902054331</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1570.967302564245</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="X2" t="n">
-        <v>1197.501544303165</v>
+        <v>1278.072272854682</v>
       </c>
       <c r="Y2" t="n">
-        <v>807.3622123273533</v>
+        <v>887.9329408788699</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093829</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369552</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496867</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.911999152942</v>
+        <v>775.2612895234854</v>
       </c>
       <c r="M3" t="n">
-        <v>1620.270317882295</v>
+        <v>1416.284499143379</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315627</v>
+        <v>1905.604188315626</v>
       </c>
       <c r="O3" t="n">
         <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4440,10 +4440,10 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>429.6292397316549</v>
+        <v>370.8526776630624</v>
       </c>
       <c r="C4" t="n">
-        <v>314.6285669616253</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D4" t="n">
-        <v>314.6285669616253</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>314.6285669616253</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.034527330184</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159871</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341311</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666712</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092719</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357427</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993471</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1133.095857979089</v>
+        <v>1050.892465086039</v>
       </c>
       <c r="V4" t="n">
-        <v>878.4113697732024</v>
+        <v>796.2079768801517</v>
       </c>
       <c r="W4" t="n">
-        <v>878.4113697732024</v>
+        <v>796.2079768801517</v>
       </c>
       <c r="X4" t="n">
-        <v>650.4218188751851</v>
+        <v>773.2937216368322</v>
       </c>
       <c r="Y4" t="n">
-        <v>429.6292397316549</v>
+        <v>552.501142493302</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1587.443666017298</v>
+        <v>1349.441840053724</v>
       </c>
       <c r="C5" t="n">
-        <v>1218.481149076886</v>
+        <v>1136.517429052843</v>
       </c>
       <c r="D5" t="n">
-        <v>860.2154504701355</v>
+        <v>778.251730446093</v>
       </c>
       <c r="E5" t="n">
-        <v>474.4271978718913</v>
+        <v>778.251730446093</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>367.2658256564855</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
         <v>51.79985532281972</v>
@@ -4568,19 +4568,19 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="W5" t="n">
-        <v>2589.992766140986</v>
+        <v>2113.046930290616</v>
       </c>
       <c r="X5" t="n">
-        <v>2216.527007879906</v>
+        <v>1739.581172029536</v>
       </c>
       <c r="Y5" t="n">
-        <v>1974.043506081419</v>
+        <v>1349.441840053724</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682815</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845962</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1240.281905962037</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>603.0000985203872</v>
+        <v>939.1780282016797</v>
       </c>
       <c r="C7" t="n">
-        <v>603.0000985203872</v>
+        <v>770.2418452737728</v>
       </c>
       <c r="D7" t="n">
-        <v>452.8834591080514</v>
+        <v>620.1252058614371</v>
       </c>
       <c r="E7" t="n">
-        <v>452.8834591080514</v>
+        <v>472.2121122790439</v>
       </c>
       <c r="F7" t="n">
-        <v>305.993511610141</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
         <v>157.3459760430229</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1348.412641916872</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W7" t="n">
-        <v>1058.995471879912</v>
+        <v>1102.88201191103</v>
       </c>
       <c r="X7" t="n">
-        <v>831.0059209818944</v>
+        <v>1102.88201191103</v>
       </c>
       <c r="Y7" t="n">
-        <v>784.6485633506269</v>
+        <v>1102.88201191103</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1166.930012102023</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="C8" t="n">
-        <v>797.9674951616109</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="D8" t="n">
-        <v>439.7017965548604</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="E8" t="n">
-        <v>439.7017965548604</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F8" t="n">
         <v>432.7562958056569</v>
@@ -4841,13 +4841,13 @@
         <v>1672.528110618234</v>
       </c>
       <c r="W8" t="n">
-        <v>1553.529852166144</v>
+        <v>1620.481372635198</v>
       </c>
       <c r="X8" t="n">
-        <v>1553.529852166144</v>
+        <v>1620.481372635198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1553.529852166144</v>
+        <v>1230.342040659386</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4881,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128335</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>724.0888213291482</v>
+        <v>871.0311846349159</v>
       </c>
       <c r="M9" t="n">
-        <v>1090.394710821474</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>654.7118256390123</v>
+        <v>1048.092960186077</v>
       </c>
       <c r="C10" t="n">
-        <v>485.7756427111054</v>
+        <v>879.15677725817</v>
       </c>
       <c r="D10" t="n">
-        <v>335.6590032987697</v>
+        <v>729.0401378458342</v>
       </c>
       <c r="E10" t="n">
-        <v>187.7459097163766</v>
+        <v>581.1270442634411</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>434.2370967655307</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>266.2609080274201</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916872</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458854</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U10" t="n">
-        <v>836.360290469252</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="V10" t="n">
-        <v>836.360290469252</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="W10" t="n">
-        <v>836.360290469252</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="X10" t="n">
-        <v>836.360290469252</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="Y10" t="n">
-        <v>836.360290469252</v>
+        <v>1229.741425016316</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>538.7363435406111</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1169.166938412398</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>941.1773875143809</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>720.3848083708508</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,7 +5364,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>446.7216388920913</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>279.5255396069712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5601,13 +5601,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>558.0193492433381</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
         <v>407.9027098310023</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.6678140735778</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190824</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1558.322031509834</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
         <v>898.265941231132</v>
@@ -6169,19 +6169,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U25" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W25" t="n">
         <v>1483.79828551875</v>
@@ -6190,7 +6190,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="26">
@@ -6364,13 +6364,13 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,10 +6476,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
         <v>782.5512955656819</v>
@@ -6610,13 +6610,13 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.0944824954151</v>
@@ -6628,7 +6628,7 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
@@ -6652,7 +6652,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
         <v>2129.438138565707</v>
@@ -7327,7 +7327,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7795,34 +7795,34 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7843,7 +7843,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
@@ -7979,28 +7979,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>191.1953109993661</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>37.93451847054649</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942333</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159752</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>196.3826133675412</v>
+        <v>380.8926041660669</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>206.0462815544579</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8295,16 +8295,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>277.4922425530995</v>
       </c>
       <c r="N6" t="n">
-        <v>35.38972270187077</v>
+        <v>232.4400048971988</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>274.5176649421944</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-2.480728907023433e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>323.0725717423613</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22562,10 +22562,10 @@
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885173</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>59.57825522222817</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>53.39615505629854</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>203.0245426981509</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>80.44045370237457</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>24.63391537253455</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>37.70876137138008</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>38.89198472948075</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.72409101823416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.131767663158371</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>56.99921249228305</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>15883.07632636138</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660709</v>
@@ -26329,7 +26329,7 @@
         <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
         <v>20526.04424660709</v>
@@ -26344,16 +26344,16 @@
         <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="O2" t="n">
-        <v>20526.0442466071</v>
-      </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753976</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898933</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363183</v>
+        <v>19427.71799363182</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53783.7099433391</v>
+        <v>53783.70994333891</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695072</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695072</v>
+        <v>6287.480531695029</v>
       </c>
       <c r="I4" t="n">
         <v>14278.33979478854</v>
       </c>
       <c r="J4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="K4" t="n">
         <v>14278.33979478853</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="M4" t="n">
         <v>14278.33979478852</v>
@@ -26457,7 +26457,7 @@
         <v>14278.33979478852</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478853</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699087</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1066928.644389366</v>
+        <v>-1067392.941181391</v>
       </c>
       <c r="C6" t="n">
-        <v>-374786.1596300438</v>
+        <v>-374786.1596300428</v>
       </c>
       <c r="D6" t="n">
         <v>-202021.7998401505</v>
       </c>
       <c r="E6" t="n">
-        <v>-588120.2131091028</v>
+        <v>-588154.9510345384</v>
       </c>
       <c r="F6" t="n">
-        <v>-87231.34536335201</v>
+        <v>-87266.08328878772</v>
       </c>
       <c r="G6" t="n">
-        <v>-87231.34536335201</v>
+        <v>-87266.08328878772</v>
       </c>
       <c r="H6" t="n">
-        <v>-87231.34536335203</v>
+        <v>-87266.0832887877</v>
       </c>
       <c r="I6" t="n">
         <v>-116344.1293957287</v>
       </c>
       <c r="J6" t="n">
-        <v>-266330.4282281449</v>
+        <v>-266330.4282281447</v>
       </c>
       <c r="K6" t="n">
         <v>-96916.41140209684</v>
       </c>
       <c r="L6" t="n">
-        <v>-96916.41140209683</v>
+        <v>-96916.41140209681</v>
       </c>
       <c r="M6" t="n">
         <v>-227800.8683063321</v>
@@ -26558,10 +26558,10 @@
         <v>-116344.1293957287</v>
       </c>
       <c r="O6" t="n">
-        <v>-96916.41140209683</v>
+        <v>-96916.41140209678</v>
       </c>
       <c r="P6" t="n">
-        <v>-96916.41140209688</v>
+        <v>-96916.41140209684</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="I2" t="n">
         <v>24.28464749203977</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26920,34 +26920,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203977</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203979</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522348</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27591,7 +27591,7 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>109.9198738696078</v>
+        <v>28.53851490548556</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>154.4777248801356</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>146.179271875552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>17.7650363096802</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
@@ -27831,16 +27831,16 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>172.69086929714</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>231.432692849844</v>
+        <v>297.7146981142071</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10.83445417330998</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>39.33527754689374</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090891</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066895</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611369</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014937</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682851</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658683</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485895</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775956</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330904</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325346</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282124</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072712</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674104</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307771</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261556</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.262332560511</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911972</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240732</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257154</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028909</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969222</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993425</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777202</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855589</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600313</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932505</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519961</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567077</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965187</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189612</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32084,10 +32084,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>489.8124929257566</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>403.8524967138025</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>152.1871379112071</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>576.057346513631</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.944966752077</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>354.6246161155225</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315064</v>
+        <v>277.9575298020536</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410124</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692774</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269027</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938087</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185456</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597328</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643752</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.548298084096</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>462.9882007367202</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407399</v>
+        <v>494.2623122951984</v>
       </c>
       <c r="O3" t="n">
-        <v>241.217122981271</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289993</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527185</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883111</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550911</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944467</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N6" t="n">
-        <v>429.7428149500954</v>
+        <v>626.7930971454234</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025566</v>
@@ -35033,7 +35033,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
         <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>574.832765059684</v>
       </c>
       <c r="M9" t="n">
         <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>568.1170166222649</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
         <v>338.3117987025566</v>
@@ -35273,7 +35273,7 @@
         <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35732,10 +35732,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,13 +36206,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>347.2162484813122</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>272.5107846304692</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36765,7 +36765,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,19 +36917,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,13 +36999,13 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
         <v>144.6869047919381</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>25.34951124454042</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>433.4611020691866</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
